--- a/bank statement generator/bank_statements/statement_145.xlsx
+++ b/bank statement generator/bank_statements/statement_145.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 28.04.2025</t>
+          <t>KONTOSTAND AM 06.04.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,98 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>30.04.</t>
+          <t>07.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>01.05.</t>
+          <t>08.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 15763350</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>74,19-</t>
+          <t>83,89-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>03.05.</t>
+          <t>10.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>04.05.</t>
+          <t>11.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-67736554</t>
+          <t>BEITRAG Allianz SE K-14452348</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>54,62-</t>
+          <t>53,67-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>05.05.</t>
+          <t>12.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>06.05.</t>
+          <t>13.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./05.05 ALDI SUED RO</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>23,43-</t>
+          <t>47,67-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>09.05.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>10.05.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 52825638</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>87,13-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>11.05.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>12.05.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>RECHNUNG VODAFONE GMBH 13629258</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>40,75-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>15.05.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>16.05.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>PAYPAL WJDOGH</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>18,72-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 19.05.2025</t>
+          <t>KONTOSTAND AM 17.04.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>298,84-</t>
+          <t>185,23-</t>
         </is>
       </c>
     </row>
@@ -906,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 29.05.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 27.04.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
